--- a/data/pia/Sichtungs-Fotografien.xlsx
+++ b/data/pia/Sichtungs-Fotografien.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5834" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5873" uniqueCount="1548">
   <si>
     <t>Florenz</t>
   </si>
@@ -4599,9 +4599,6 @@
     <t xml:space="preserve">Manuskript Detail mit handschriftlichen Vermerken </t>
   </si>
   <si>
-    <t>Skizze (nach Gemälde?), zweifigurig</t>
-  </si>
-  <si>
     <t>Tuscheskizze (Architektur) mit Notizen und Vermessungen</t>
   </si>
   <si>
@@ -4636,6 +4633,33 @@
   </si>
   <si>
     <t>Otto Loewi</t>
+  </si>
+  <si>
+    <t>Skizze (nach Gemälde?)</t>
+  </si>
+  <si>
+    <t>zweifigurig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.1.2 </t>
+  </si>
+  <si>
+    <t>I.1.2</t>
+  </si>
+  <si>
+    <t>Bleistiftskizze (sakraler Innenraum) mit Notizen</t>
+  </si>
+  <si>
+    <t>Anmerkungen von Geymüller mit blauem Farbstift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bleistiftskizze (Landschaft) </t>
+  </si>
+  <si>
+    <t>Bleistiftskizzen (Landschaften) mit Anmerkungen</t>
+  </si>
+  <si>
+    <t>Bleistiftskizzen (Architektur mit Notizen</t>
   </si>
 </sst>
 </file>
@@ -4977,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4991,87 +5015,117 @@
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>6126</v>
       </c>
       <c r="B1" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6127</v>
       </c>
       <c r="B2" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6128</v>
       </c>
       <c r="B3" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6129</v>
       </c>
       <c r="B4" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6130</v>
       </c>
       <c r="B5" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6131</v>
       </c>
       <c r="B6" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6132</v>
       </c>
       <c r="B7" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6133</v>
       </c>
       <c r="B8" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6134</v>
       </c>
       <c r="B9" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6135</v>
       </c>
       <c r="B10" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6136</v>
       </c>
@@ -5079,7 +5133,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6137</v>
       </c>
@@ -5087,7 +5141,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6138</v>
       </c>
@@ -5095,7 +5149,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6139</v>
       </c>
@@ -5103,7 +5157,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6140</v>
       </c>
@@ -5111,7 +5165,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6141</v>
       </c>
@@ -5119,7 +5173,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6142</v>
       </c>
@@ -5127,7 +5181,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6143</v>
       </c>
@@ -5135,7 +5189,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6144</v>
       </c>
@@ -5143,7 +5197,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6145</v>
       </c>
@@ -5151,7 +5205,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6146</v>
       </c>
@@ -5159,7 +5213,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6147</v>
       </c>
@@ -5167,7 +5221,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6148</v>
       </c>
@@ -5175,7 +5229,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6149</v>
       </c>
@@ -5183,7 +5237,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6150</v>
       </c>
@@ -5191,93 +5245,141 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6151</v>
       </c>
       <c r="B26" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6152</v>
       </c>
       <c r="B27" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6153</v>
       </c>
       <c r="B28" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1539</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6154</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6155</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6156</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6158</v>
       </c>
+      <c r="B33" t="s">
+        <v>1092</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6159</v>
       </c>
+      <c r="B34" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6160</v>
       </c>
       <c r="B35" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G35" t="s">
         <v>1528</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6161</v>
       </c>
+      <c r="B36" t="s">
+        <v>1543</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6162</v>
       </c>
+      <c r="B37" t="s">
+        <v>1092</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6163</v>
       </c>
+      <c r="B38" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6164</v>
       </c>
+      <c r="B39" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1544</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -5298,6 +5400,9 @@
       <c r="A43">
         <v>6168</v>
       </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -5307,108 +5412,147 @@
         <v>324</v>
       </c>
       <c r="D44" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="G44" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6170</v>
       </c>
+      <c r="B45" t="s">
+        <v>1545</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6171</v>
       </c>
+      <c r="B46" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6172</v>
       </c>
+      <c r="B47" t="s">
+        <v>1546</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6173</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6174</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6175</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6176</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6177</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6178</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6179</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6180</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>324</v>
+      </c>
+      <c r="F55">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6181</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6182</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6183</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6184</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6185</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6186</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6187</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6188</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6189</v>
       </c>
@@ -5601,13 +5745,13 @@
         <v>145</v>
       </c>
       <c r="D101" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E101" t="s">
+        <v>285</v>
+      </c>
+      <c r="G101" t="s">
         <v>1536</v>
-      </c>
-      <c r="E101" t="s">
-        <v>285</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -5618,13 +5762,13 @@
         <v>349</v>
       </c>
       <c r="D102" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E102" t="s">
+        <v>285</v>
+      </c>
+      <c r="G102" t="s">
         <v>1536</v>
-      </c>
-      <c r="E102" t="s">
-        <v>285</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -5635,7 +5779,7 @@
         <v>722</v>
       </c>
       <c r="G103" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -5651,7 +5795,7 @@
         <v>6230</v>
       </c>
       <c r="B105" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -5659,10 +5803,10 @@
         <v>6231</v>
       </c>
       <c r="B106" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E106" t="s">
         <v>1538</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -5676,7 +5820,7 @@
         <v>285</v>
       </c>
       <c r="G107" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -5690,7 +5834,7 @@
         <v>285</v>
       </c>
       <c r="G108" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/pia/Sichtungs-Fotografien.xlsx
+++ b/data/pia/Sichtungs-Fotografien.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="330" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="20115" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5873" uniqueCount="1548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6032" uniqueCount="1576">
   <si>
     <t>Florenz</t>
   </si>
@@ -4660,6 +4660,90 @@
   </si>
   <si>
     <t>Bleistiftskizzen (Architektur mit Notizen</t>
+  </si>
+  <si>
+    <t>Notizen (Bleistift) mit Skizze (Bleistift; Architektur)</t>
+  </si>
+  <si>
+    <t>Vermerk mit Buntstift (rot)</t>
+  </si>
+  <si>
+    <t>Vermerk mit Buntstift (blau)</t>
+  </si>
+  <si>
+    <t>Fotografie (s/w; Innenarchitektur)</t>
+  </si>
+  <si>
+    <t>"Diagramm-Skizze" mit Notizen</t>
+  </si>
+  <si>
+    <t>Anm. auf dem Blatt: Professor Castelucci</t>
+  </si>
+  <si>
+    <t>Tuscheskizze (Landschaft) mit Notizen</t>
+  </si>
+  <si>
+    <t>Anm. auf dem Blatt: Veruca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bleistiftskizze </t>
+  </si>
+  <si>
+    <t>Anm. auf dem Blatt: Vico Pisano</t>
+  </si>
+  <si>
+    <t>Dichiarazione</t>
+  </si>
+  <si>
+    <t>Baron Enrico de Geymüller</t>
+  </si>
+  <si>
+    <t>Bleistiftskizze und Notizen</t>
+  </si>
+  <si>
+    <t>Barock</t>
+  </si>
+  <si>
+    <t>Tuschezeichnung (Landschaft, Architektur)</t>
+  </si>
+  <si>
+    <t>Tuschezeichnung (Landschaft mit Tieren)</t>
+  </si>
+  <si>
+    <t>Tuschezeichnung (Architektur)</t>
+  </si>
+  <si>
+    <t>Tuschezeichnung (Architektur) mit Notizen</t>
+  </si>
+  <si>
+    <t>Plan (Sternstadt)</t>
+  </si>
+  <si>
+    <t>Salathy (?)</t>
+  </si>
+  <si>
+    <t>Societe Miniere &amp; Metallurgique de Penarroya</t>
+  </si>
+  <si>
+    <t>Grand Hotel Terminus Paris</t>
+  </si>
+  <si>
+    <t>The Royal Institute of British Architects</t>
+  </si>
+  <si>
+    <t>Langres - La Cathedrale</t>
+  </si>
+  <si>
+    <t>Druck (Konsole)</t>
+  </si>
+  <si>
+    <t>Druck (Architekturelemente)</t>
+  </si>
+  <si>
+    <t>wahrs. Zinnätzung (Toskanawerk)</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -5001,8 +5085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,6 +5216,9 @@
       <c r="B11" t="s">
         <v>1522</v>
       </c>
+      <c r="C11" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5140,6 +5227,9 @@
       <c r="B12" t="s">
         <v>1522</v>
       </c>
+      <c r="C12" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5148,6 +5238,9 @@
       <c r="B13" t="s">
         <v>1522</v>
       </c>
+      <c r="C13" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5156,6 +5249,9 @@
       <c r="B14" t="s">
         <v>1522</v>
       </c>
+      <c r="C14" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5164,6 +5260,9 @@
       <c r="B15" t="s">
         <v>1523</v>
       </c>
+      <c r="C15" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5172,6 +5271,9 @@
       <c r="B16" t="s">
         <v>1523</v>
       </c>
+      <c r="C16" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -5385,16 +5487,43 @@
       <c r="A40">
         <v>6165</v>
       </c>
+      <c r="B40" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F40">
+        <v>1888</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1574</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6166</v>
       </c>
+      <c r="B41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F41">
+        <v>1888</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1574</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6167</v>
       </c>
+      <c r="B42" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F42">
+        <v>1888</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1574</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -5450,7 +5579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6174</v>
       </c>
@@ -5458,7 +5587,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6175</v>
       </c>
@@ -5466,7 +5595,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6176</v>
       </c>
@@ -5474,7 +5603,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6177</v>
       </c>
@@ -5482,7 +5611,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6178</v>
       </c>
@@ -5490,7 +5619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6179</v>
       </c>
@@ -5498,7 +5627,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6180</v>
       </c>
@@ -5506,10 +5635,10 @@
         <v>324</v>
       </c>
       <c r="F55">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6181</v>
       </c>
@@ -5517,225 +5646,438 @@
         <v>324</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6182</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6183</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6184</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>834</v>
+      </c>
+      <c r="F59">
+        <v>1898</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>6185</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6186</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6187</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6188</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6189</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6190</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>324</v>
+      </c>
+      <c r="E65" t="s">
+        <v>285</v>
+      </c>
+      <c r="F65">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6191</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>952</v>
+      </c>
+      <c r="E66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6192</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E67" t="s">
+        <v>285</v>
+      </c>
+      <c r="F67">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6193</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>952</v>
+      </c>
+      <c r="E68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6194</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>530</v>
+      </c>
+      <c r="E69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6195</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E70" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70">
+        <v>1898</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6196</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6197</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6198</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E73" t="s">
+        <v>285</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>6199</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6200</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E75" t="s">
+        <v>285</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6201</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F76">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>6202</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>324</v>
+      </c>
+      <c r="E77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6203</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>6204</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>6205</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6206</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6207</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6208</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6209</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6210</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6211</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6212</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6213</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6214</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6215</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6216</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6217</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6218</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6219</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6220</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6221</v>
+      </c>
+      <c r="B96" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6222</v>
       </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="E97" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6223</v>
       </c>
+      <c r="B98" t="s">
+        <v>324</v>
+      </c>
+      <c r="E98" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6224</v>
       </c>
+      <c r="B99" t="s">
+        <v>778</v>
+      </c>
+      <c r="E99" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6225</v>
       </c>
+      <c r="B100" t="s">
+        <v>778</v>
+      </c>
+      <c r="E100" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -5986,11 +6328,26 @@
       <c r="A117">
         <v>6242</v>
       </c>
+      <c r="B117" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E117" t="s">
+        <v>285</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1561</v>
+      </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6243</v>
       </c>
+      <c r="B118" t="s">
+        <v>590</v>
+      </c>
+      <c r="E118" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -6033,96 +6390,213 @@
       <c r="A121">
         <v>6246</v>
       </c>
+      <c r="B121" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E121" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6247</v>
       </c>
+      <c r="B122" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E122" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6248</v>
       </c>
+      <c r="B123" t="s">
+        <v>61</v>
+      </c>
+      <c r="E123" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6249</v>
       </c>
+      <c r="B124" t="s">
+        <v>61</v>
+      </c>
+      <c r="E124" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6250</v>
       </c>
+      <c r="B125" t="s">
+        <v>324</v>
+      </c>
+      <c r="E125" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6251</v>
       </c>
+      <c r="B126" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E126" t="s">
+        <v>285</v>
+      </c>
+      <c r="F126">
+        <v>1894</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6252</v>
       </c>
+      <c r="B127" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E127" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6253</v>
       </c>
+      <c r="B128" t="s">
+        <v>691</v>
+      </c>
+      <c r="E128" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6254</v>
       </c>
+      <c r="B129" t="s">
+        <v>691</v>
+      </c>
+      <c r="E129" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6255</v>
       </c>
+      <c r="B130" t="s">
+        <v>740</v>
+      </c>
+      <c r="E130" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6256</v>
       </c>
+      <c r="B131" t="s">
+        <v>1566</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6257</v>
       </c>
+      <c r="B132" t="s">
+        <v>61</v>
+      </c>
+      <c r="E132" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6258</v>
       </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F133">
+        <v>1894</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1568</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6259</v>
       </c>
+      <c r="B134" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6260</v>
       </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6261</v>
       </c>
+      <c r="B136" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6262</v>
       </c>
+      <c r="B137" t="s">
+        <v>324</v>
+      </c>
+      <c r="E137" t="s">
+        <v>285</v>
+      </c>
+      <c r="F137">
+        <v>1895</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6263</v>
       </c>
+      <c r="B138" t="s">
+        <v>324</v>
+      </c>
+      <c r="E138" t="s">
+        <v>285</v>
+      </c>
+      <c r="F138">
+        <v>1895</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6264</v>
       </c>
+      <c r="B139" t="s">
+        <v>324</v>
+      </c>
+      <c r="E139" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -10205,116 +10679,263 @@
       <c r="A383">
         <v>6508</v>
       </c>
+      <c r="B383" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>6509</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6510</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
+        <v>673</v>
+      </c>
+      <c r="F385">
+        <v>1898</v>
+      </c>
+      <c r="G385" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>6511</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F386">
+        <v>1898</v>
+      </c>
+      <c r="G386" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>6512</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
+        <v>324</v>
+      </c>
+      <c r="E387" t="s">
+        <v>285</v>
+      </c>
+      <c r="F387">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>6513</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
+        <v>21</v>
+      </c>
+      <c r="E388" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F388">
+        <v>1900</v>
+      </c>
+      <c r="G388" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>6514</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E389" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F389">
+        <v>1900</v>
+      </c>
+      <c r="G389" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>6515</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>6516</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>6517</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>6518</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>6519</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
+        <v>21</v>
+      </c>
+      <c r="E394" t="s">
+        <v>319</v>
+      </c>
+      <c r="F394">
+        <v>1892</v>
+      </c>
+      <c r="G394" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>6520</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E395" t="s">
+        <v>433</v>
+      </c>
+      <c r="F395">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>6521</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
+        <v>673</v>
+      </c>
+      <c r="E396" t="s">
+        <v>433</v>
+      </c>
+      <c r="F396">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>6522</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
+        <v>21</v>
+      </c>
+      <c r="F397">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>6523</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
+        <v>24</v>
+      </c>
+      <c r="F398">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>6524</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>6525</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E400" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>6526</v>
       </c>
+      <c r="B401" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E401" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>6527</v>
       </c>
+      <c r="B402" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E402" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>6528</v>
       </c>
+      <c r="B403" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E403" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>6529</v>
       </c>
+      <c r="B404" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>6530</v>
       </c>
+      <c r="B405" t="s">
+        <v>935</v>
+      </c>
+      <c r="G405" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406">
@@ -24731,11 +25352,11 @@
       <c r="B1298" t="s">
         <v>454</v>
       </c>
-      <c r="C1298" t="s">
-        <v>285</v>
-      </c>
       <c r="D1298" t="s">
         <v>458</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>285</v>
       </c>
       <c r="F1298">
         <v>1881</v>
@@ -24748,11 +25369,11 @@
       <c r="B1299" t="s">
         <v>455</v>
       </c>
-      <c r="C1299" t="s">
-        <v>285</v>
-      </c>
       <c r="D1299" t="s">
         <v>458</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>285</v>
       </c>
       <c r="F1299">
         <v>1881</v>
@@ -24765,11 +25386,11 @@
       <c r="B1300" t="s">
         <v>456</v>
       </c>
-      <c r="C1300" t="s">
-        <v>285</v>
-      </c>
       <c r="D1300" t="s">
         <v>458</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>285</v>
       </c>
       <c r="F1300">
         <v>1881</v>
@@ -24782,11 +25403,11 @@
       <c r="B1301" t="s">
         <v>457</v>
       </c>
-      <c r="C1301" t="s">
-        <v>285</v>
-      </c>
       <c r="D1301" t="s">
         <v>458</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>285</v>
       </c>
       <c r="F1301">
         <v>1881</v>
@@ -24799,11 +25420,11 @@
       <c r="B1302" t="s">
         <v>450</v>
       </c>
-      <c r="C1302" t="s">
-        <v>285</v>
-      </c>
       <c r="D1302" t="s">
         <v>449</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1303" spans="1:8" x14ac:dyDescent="0.25">
@@ -24813,11 +25434,11 @@
       <c r="B1303" t="s">
         <v>453</v>
       </c>
-      <c r="C1303" t="s">
-        <v>285</v>
-      </c>
       <c r="D1303" t="s">
         <v>449</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.25">
@@ -24827,11 +25448,11 @@
       <c r="B1304" t="s">
         <v>452</v>
       </c>
-      <c r="C1304" t="s">
-        <v>285</v>
-      </c>
       <c r="D1304" t="s">
         <v>449</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1305" spans="1:8" x14ac:dyDescent="0.25">
@@ -24841,11 +25462,11 @@
       <c r="B1305" t="s">
         <v>452</v>
       </c>
-      <c r="C1305" t="s">
-        <v>285</v>
-      </c>
       <c r="D1305" t="s">
         <v>449</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1306" spans="1:8" x14ac:dyDescent="0.25">
@@ -24855,11 +25476,11 @@
       <c r="B1306" t="s">
         <v>452</v>
       </c>
-      <c r="C1306" t="s">
-        <v>285</v>
-      </c>
       <c r="D1306" t="s">
         <v>449</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1307" spans="1:8" x14ac:dyDescent="0.25">
@@ -24869,11 +25490,11 @@
       <c r="B1307" t="s">
         <v>451</v>
       </c>
-      <c r="C1307" t="s">
-        <v>285</v>
-      </c>
       <c r="D1307" t="s">
         <v>449</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1308" spans="1:8" x14ac:dyDescent="0.25">
@@ -24883,11 +25504,11 @@
       <c r="B1308" t="s">
         <v>452</v>
       </c>
-      <c r="C1308" t="s">
-        <v>285</v>
-      </c>
       <c r="D1308" t="s">
         <v>449</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1309" spans="1:8" x14ac:dyDescent="0.25">
@@ -24897,11 +25518,11 @@
       <c r="B1309" t="s">
         <v>447</v>
       </c>
-      <c r="C1309" t="s">
-        <v>285</v>
-      </c>
       <c r="D1309" t="s">
         <v>436</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>285</v>
       </c>
       <c r="H1309" t="s">
         <v>448</v>
@@ -24914,11 +25535,11 @@
       <c r="B1310" t="s">
         <v>446</v>
       </c>
-      <c r="C1310" t="s">
-        <v>285</v>
-      </c>
       <c r="D1310" t="s">
         <v>436</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1311" spans="1:8" x14ac:dyDescent="0.25">
@@ -24928,11 +25549,11 @@
       <c r="B1311" t="s">
         <v>444</v>
       </c>
-      <c r="C1311" t="s">
-        <v>285</v>
-      </c>
       <c r="D1311" t="s">
         <v>445</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1312" spans="1:8" x14ac:dyDescent="0.25">
@@ -24942,11 +25563,11 @@
       <c r="B1312" t="s">
         <v>443</v>
       </c>
-      <c r="C1312" t="s">
-        <v>285</v>
-      </c>
       <c r="D1312" t="s">
         <v>436</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1313" spans="1:8" x14ac:dyDescent="0.25">
@@ -24956,11 +25577,11 @@
       <c r="B1313" t="s">
         <v>442</v>
       </c>
-      <c r="C1313" t="s">
-        <v>285</v>
-      </c>
       <c r="D1313" t="s">
         <v>436</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1314" spans="1:8" x14ac:dyDescent="0.25">
@@ -24970,11 +25591,11 @@
       <c r="B1314" t="s">
         <v>123</v>
       </c>
-      <c r="C1314" t="s">
-        <v>285</v>
-      </c>
       <c r="D1314" t="s">
         <v>436</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1315" spans="1:8" x14ac:dyDescent="0.25">
@@ -24984,11 +25605,11 @@
       <c r="B1315" t="s">
         <v>123</v>
       </c>
-      <c r="C1315" t="s">
-        <v>285</v>
-      </c>
       <c r="D1315" t="s">
         <v>436</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1316" spans="1:8" x14ac:dyDescent="0.25">
@@ -25032,11 +25653,11 @@
       <c r="B1318" t="s">
         <v>21</v>
       </c>
-      <c r="C1318" t="s">
-        <v>439</v>
-      </c>
       <c r="D1318" t="s">
         <v>436</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>439</v>
       </c>
       <c r="F1318">
         <v>1878</v>
@@ -25052,11 +25673,11 @@
       <c r="B1319" t="s">
         <v>438</v>
       </c>
-      <c r="C1319" t="s">
-        <v>439</v>
-      </c>
       <c r="D1319" t="s">
         <v>436</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>439</v>
       </c>
       <c r="F1319">
         <v>1878</v>
@@ -25072,11 +25693,11 @@
       <c r="B1320" t="s">
         <v>112</v>
       </c>
-      <c r="C1320" t="s">
-        <v>439</v>
-      </c>
       <c r="D1320" t="s">
         <v>436</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>439</v>
       </c>
       <c r="F1320">
         <v>1878</v>
@@ -25092,11 +25713,11 @@
       <c r="B1321" t="s">
         <v>21</v>
       </c>
-      <c r="C1321" t="s">
-        <v>437</v>
-      </c>
       <c r="D1321" t="s">
         <v>436</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>437</v>
       </c>
       <c r="F1321">
         <v>1876</v>
@@ -25112,11 +25733,11 @@
       <c r="B1322" t="s">
         <v>80</v>
       </c>
-      <c r="C1322" t="s">
-        <v>426</v>
-      </c>
       <c r="D1322" t="s">
         <v>436</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>426</v>
       </c>
       <c r="F1322">
         <v>1878</v>
@@ -25132,11 +25753,11 @@
       <c r="B1323" t="s">
         <v>435</v>
       </c>
-      <c r="C1323" t="s">
-        <v>426</v>
-      </c>
       <c r="D1323" t="s">
         <v>436</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>426</v>
       </c>
       <c r="F1323">
         <v>1878</v>
@@ -25152,11 +25773,11 @@
       <c r="B1324" t="s">
         <v>21</v>
       </c>
-      <c r="C1324" t="s">
-        <v>433</v>
-      </c>
       <c r="D1324" t="s">
         <v>427</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>433</v>
       </c>
       <c r="F1324">
         <v>1879</v>
@@ -25175,11 +25796,11 @@
       <c r="B1325" t="s">
         <v>24</v>
       </c>
-      <c r="C1325" t="s">
-        <v>433</v>
-      </c>
       <c r="D1325" t="s">
         <v>427</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>433</v>
       </c>
       <c r="F1325">
         <v>1879</v>
@@ -25198,11 +25819,11 @@
       <c r="B1326" t="s">
         <v>21</v>
       </c>
-      <c r="C1326" t="s">
-        <v>433</v>
-      </c>
       <c r="D1326" t="s">
         <v>427</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>433</v>
       </c>
       <c r="F1326">
         <v>1878</v>
@@ -25218,11 +25839,11 @@
       <c r="B1327" t="s">
         <v>21</v>
       </c>
-      <c r="C1327" t="s">
-        <v>426</v>
-      </c>
       <c r="D1327" t="s">
         <v>427</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>426</v>
       </c>
       <c r="F1327">
         <v>1878</v>
@@ -25238,11 +25859,11 @@
       <c r="B1328" t="s">
         <v>432</v>
       </c>
-      <c r="C1328" t="s">
-        <v>426</v>
-      </c>
       <c r="D1328" t="s">
         <v>427</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>426</v>
       </c>
       <c r="F1328">
         <v>1878</v>
@@ -25258,11 +25879,11 @@
       <c r="B1329" t="s">
         <v>82</v>
       </c>
-      <c r="C1329" t="s">
-        <v>426</v>
-      </c>
       <c r="D1329" t="s">
         <v>427</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>426</v>
       </c>
       <c r="F1329">
         <v>1878</v>
@@ -25278,11 +25899,11 @@
       <c r="B1330" t="s">
         <v>80</v>
       </c>
-      <c r="C1330" t="s">
-        <v>426</v>
-      </c>
       <c r="D1330" t="s">
         <v>427</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>426</v>
       </c>
       <c r="F1330">
         <v>1878</v>
@@ -25298,11 +25919,11 @@
       <c r="B1331" t="s">
         <v>428</v>
       </c>
-      <c r="C1331" t="s">
-        <v>285</v>
-      </c>
       <c r="D1331" t="s">
         <v>427</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1332" spans="1:8" x14ac:dyDescent="0.25">
@@ -25390,11 +26011,11 @@
       <c r="B1338" t="s">
         <v>123</v>
       </c>
-      <c r="C1338" t="s">
-        <v>285</v>
-      </c>
       <c r="D1338" t="s">
         <v>427</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1339" spans="1:8" x14ac:dyDescent="0.25">
@@ -25404,11 +26025,11 @@
       <c r="B1339" t="s">
         <v>132</v>
       </c>
-      <c r="C1339" t="s">
-        <v>285</v>
-      </c>
       <c r="D1339" t="s">
         <v>427</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.25">
@@ -25418,11 +26039,11 @@
       <c r="B1340" t="s">
         <v>132</v>
       </c>
-      <c r="C1340" t="s">
-        <v>285</v>
-      </c>
       <c r="D1340" t="s">
         <v>427</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1341" spans="1:8" x14ac:dyDescent="0.25">
@@ -25432,11 +26053,11 @@
       <c r="B1341" t="s">
         <v>132</v>
       </c>
-      <c r="C1341" t="s">
-        <v>285</v>
-      </c>
       <c r="D1341" t="s">
         <v>427</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1342" spans="1:8" x14ac:dyDescent="0.25">
@@ -25446,11 +26067,11 @@
       <c r="B1342" t="s">
         <v>132</v>
       </c>
-      <c r="C1342" t="s">
-        <v>285</v>
-      </c>
       <c r="D1342" t="s">
         <v>427</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1343" spans="1:8" x14ac:dyDescent="0.25">
@@ -25460,11 +26081,11 @@
       <c r="B1343" t="s">
         <v>431</v>
       </c>
-      <c r="C1343" t="s">
-        <v>285</v>
-      </c>
       <c r="D1343" t="s">
         <v>427</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.25">
@@ -25474,11 +26095,11 @@
       <c r="B1344" t="s">
         <v>400</v>
       </c>
-      <c r="C1344" t="s">
-        <v>285</v>
-      </c>
       <c r="D1344" t="s">
         <v>427</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>285</v>
       </c>
       <c r="F1344">
         <v>1879</v>
@@ -25491,11 +26112,11 @@
       <c r="B1345" t="s">
         <v>349</v>
       </c>
-      <c r="C1345" t="s">
-        <v>285</v>
-      </c>
       <c r="D1345" t="s">
         <v>427</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
@@ -25505,11 +26126,11 @@
       <c r="B1346" t="s">
         <v>430</v>
       </c>
-      <c r="C1346" t="s">
-        <v>285</v>
-      </c>
       <c r="D1346" t="s">
         <v>427</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
@@ -25544,11 +26165,11 @@
       <c r="B1349" t="s">
         <v>396</v>
       </c>
-      <c r="C1349" t="s">
-        <v>285</v>
-      </c>
       <c r="D1349" t="s">
         <v>382</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
@@ -25558,11 +26179,11 @@
       <c r="B1350" t="s">
         <v>397</v>
       </c>
-      <c r="C1350" t="s">
-        <v>285</v>
-      </c>
       <c r="D1350" t="s">
         <v>382</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
@@ -25572,11 +26193,11 @@
       <c r="B1351" t="s">
         <v>398</v>
       </c>
-      <c r="C1351" t="s">
-        <v>285</v>
-      </c>
       <c r="D1351" t="s">
         <v>382</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
@@ -25586,11 +26207,11 @@
       <c r="B1352" t="s">
         <v>399</v>
       </c>
-      <c r="C1352" t="s">
-        <v>285</v>
-      </c>
       <c r="D1352" t="s">
         <v>382</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
@@ -25600,11 +26221,11 @@
       <c r="B1353" t="s">
         <v>400</v>
       </c>
-      <c r="C1353" t="s">
-        <v>285</v>
-      </c>
       <c r="D1353" t="s">
         <v>382</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
@@ -25614,11 +26235,11 @@
       <c r="B1354" t="s">
         <v>401</v>
       </c>
-      <c r="C1354" t="s">
-        <v>285</v>
-      </c>
       <c r="D1354" t="s">
         <v>382</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
@@ -25628,11 +26249,11 @@
       <c r="B1355" t="s">
         <v>400</v>
       </c>
-      <c r="C1355" t="s">
-        <v>285</v>
-      </c>
       <c r="D1355" t="s">
         <v>382</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
@@ -25642,11 +26263,11 @@
       <c r="B1356" t="s">
         <v>400</v>
       </c>
-      <c r="C1356" t="s">
-        <v>285</v>
-      </c>
       <c r="D1356" t="s">
         <v>382</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
@@ -25656,11 +26277,11 @@
       <c r="B1357" t="s">
         <v>402</v>
       </c>
-      <c r="C1357" t="s">
-        <v>285</v>
-      </c>
       <c r="D1357" t="s">
         <v>382</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
@@ -25670,11 +26291,11 @@
       <c r="B1358" t="s">
         <v>403</v>
       </c>
-      <c r="C1358" t="s">
-        <v>285</v>
-      </c>
       <c r="D1358" t="s">
         <v>382</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
@@ -25684,11 +26305,11 @@
       <c r="B1359" t="s">
         <v>404</v>
       </c>
-      <c r="C1359" t="s">
-        <v>285</v>
-      </c>
       <c r="D1359" t="s">
         <v>382</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
@@ -25698,11 +26319,11 @@
       <c r="B1360" t="s">
         <v>53</v>
       </c>
-      <c r="C1360" t="s">
-        <v>285</v>
-      </c>
       <c r="D1360" t="s">
         <v>382</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1361" spans="1:8" x14ac:dyDescent="0.25">
@@ -25712,11 +26333,11 @@
       <c r="B1361" t="s">
         <v>405</v>
       </c>
-      <c r="C1361" t="s">
-        <v>285</v>
-      </c>
       <c r="D1361" t="s">
         <v>382</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1362" spans="1:8" x14ac:dyDescent="0.25">
@@ -25726,11 +26347,11 @@
       <c r="B1362" t="s">
         <v>406</v>
       </c>
-      <c r="C1362" t="s">
-        <v>285</v>
-      </c>
       <c r="D1362" t="s">
         <v>382</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1363" spans="1:8" x14ac:dyDescent="0.25">
@@ -25743,6 +26364,9 @@
       <c r="D1363" t="s">
         <v>382</v>
       </c>
+      <c r="E1363" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="1364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1364">
@@ -25751,11 +26375,11 @@
       <c r="B1364" t="s">
         <v>408</v>
       </c>
-      <c r="C1364" t="s">
-        <v>285</v>
-      </c>
       <c r="D1364" t="s">
         <v>382</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1365" spans="1:8" x14ac:dyDescent="0.25">
@@ -25765,11 +26389,11 @@
       <c r="B1365" t="s">
         <v>409</v>
       </c>
-      <c r="C1365" t="s">
-        <v>285</v>
-      </c>
       <c r="D1365" t="s">
         <v>382</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1366" spans="1:8" x14ac:dyDescent="0.25">
@@ -25779,11 +26403,11 @@
       <c r="B1366" t="s">
         <v>410</v>
       </c>
-      <c r="C1366" t="s">
-        <v>285</v>
-      </c>
       <c r="D1366" t="s">
         <v>382</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1367" spans="1:8" x14ac:dyDescent="0.25">
@@ -25793,11 +26417,11 @@
       <c r="B1367" t="s">
         <v>411</v>
       </c>
-      <c r="C1367" t="s">
-        <v>285</v>
-      </c>
       <c r="D1367" t="s">
         <v>382</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1368" spans="1:8" x14ac:dyDescent="0.25">
@@ -25807,11 +26431,11 @@
       <c r="B1368" t="s">
         <v>411</v>
       </c>
-      <c r="C1368" t="s">
-        <v>285</v>
-      </c>
       <c r="D1368" t="s">
         <v>382</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1369" spans="1:8" x14ac:dyDescent="0.25">
@@ -25821,11 +26445,11 @@
       <c r="B1369" t="s">
         <v>411</v>
       </c>
-      <c r="C1369" t="s">
-        <v>285</v>
-      </c>
       <c r="D1369" t="s">
         <v>382</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1370" spans="1:8" x14ac:dyDescent="0.25">
@@ -25835,11 +26459,11 @@
       <c r="B1370" t="s">
         <v>411</v>
       </c>
-      <c r="C1370" t="s">
-        <v>285</v>
-      </c>
       <c r="D1370" t="s">
         <v>382</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1371" spans="1:8" x14ac:dyDescent="0.25">
@@ -25849,11 +26473,11 @@
       <c r="B1371" t="s">
         <v>412</v>
       </c>
-      <c r="C1371" t="s">
-        <v>285</v>
-      </c>
       <c r="D1371" t="s">
         <v>382</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1372" spans="1:8" x14ac:dyDescent="0.25">
@@ -25863,11 +26487,11 @@
       <c r="B1372" t="s">
         <v>234</v>
       </c>
-      <c r="C1372" t="s">
-        <v>285</v>
-      </c>
       <c r="D1372" t="s">
         <v>382</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="1373" spans="1:8" x14ac:dyDescent="0.25">
@@ -25877,9 +26501,6 @@
       <c r="B1373" t="s">
         <v>413</v>
       </c>
-      <c r="C1373" t="s">
-        <v>285</v>
-      </c>
       <c r="D1373" t="s">
         <v>382</v>
       </c>
@@ -27019,6 +27640,9 @@
       <c r="D1440" t="s">
         <v>332</v>
       </c>
+      <c r="E1440" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="1441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1441">
@@ -30116,6 +30740,9 @@
       </c>
       <c r="D1642" t="s">
         <v>212</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>285</v>
       </c>
       <c r="F1642">
         <v>1970</v>
